--- a/slate_6/wiipsfull_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/wiipsfull_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001370789801693082</v>
+        <v>0.01834326540744581</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0008333874443882981</v>
+        <v>0.0174407572046564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002633560397039749</v>
+        <v>0.02000180792557268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003632953791266328</v>
+        <v>0.01079944974424463</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003860465920649864</v>
+        <v>0.006420945260719228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004091491490314678</v>
+        <v>0.01962088785049477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.004291191588466803</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.001806368970114479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01146336362106735</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0005628193984379396</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0001003467585884019</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002450058496244755</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0003834152007292403</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0001179128406440593</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001511419086485177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0122888087851381</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.008106959695105352</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02028496420430055</v>
       </c>
     </row>
   </sheetData>
